--- a/Caxton/library/fiscal multiplier and high freq estimate on saving rate.xlsx
+++ b/Caxton/library/fiscal multiplier and high freq estimate on saving rate.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\yang\Third_yr_grad_English\relevant_file\workspace_zy\JY_completed\Caxton\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE67216-03F9-4AA0-8808-410FEE5C5B7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC98A98-5FFC-480E-97B1-D1F6960F9877}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{78B45ACA-8010-4D4F-B803-C8A7A0645356}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{78B45ACA-8010-4D4F-B803-C8A7A0645356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="USA high freq social transfer" sheetId="2" r:id="rId2"/>
+    <sheet name="China" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Things in the model to be tracked manually</t>
   </si>
@@ -130,6 +132,36 @@
   </si>
   <si>
     <t>https://tracktherecovery.org/</t>
+  </si>
+  <si>
+    <t>Idea on China:</t>
+  </si>
+  <si>
+    <t>adding high freq growth indicator to China's model</t>
+  </si>
+  <si>
+    <t>Problem on China's model</t>
+  </si>
+  <si>
+    <t>the pricing gauge is not very clear to me</t>
+  </si>
+  <si>
+    <t>PBoC use 7d OMO as benchmark rates?</t>
+  </si>
+  <si>
+    <t>China's pricing gauge can use:</t>
+  </si>
+  <si>
+    <t>short end:</t>
+  </si>
+  <si>
+    <t>7s OMO reverse repo</t>
+  </si>
+  <si>
+    <t>long end:</t>
+  </si>
+  <si>
+    <t>7d repo swap: 1y1y</t>
   </si>
 </sst>
 </file>
@@ -610,7 +642,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -669,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C62579E-A21F-4780-9FB2-76873D28EC5B}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -724,4 +756,65 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB40C243-52D4-4F29-A53F-C11F09FD5223}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Caxton/library/fiscal multiplier and high freq estimate on saving rate.xlsx
+++ b/Caxton/library/fiscal multiplier and high freq estimate on saving rate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\yang\Third_yr_grad_English\relevant_file\workspace_zy\JY_completed\Caxton\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC98A98-5FFC-480E-97B1-D1F6960F9877}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29819DFA-6D21-4ADC-8342-F3A090B8A037}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{78B45ACA-8010-4D4F-B803-C8A7A0645356}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{78B45ACA-8010-4D4F-B803-C8A7A0645356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -760,61 +760,123 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB40C243-52D4-4F29-A53F-C11F09FD5223}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="8" t="s">
         <v>41</v>
       </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>